--- a/NEW HR/AGUILAR, WILLIAM C..xlsx
+++ b/NEW HR/AGUILAR, WILLIAM C..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98D7765-1582-4B32-BAC6-5D72A140FCA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96913A23-E122-47CD-8131-F04E236E6CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="4452" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -555,6 +555,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -567,20 +576,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2554,7 +2554,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2952,9 +2952,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4788" topLeftCell="A7"/>
+      <pane ySplit="4788" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2984,14 +2984,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3004,16 +3004,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>45019</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3026,16 +3026,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3061,18 +3061,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3119,7 +3119,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>0</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3129,7 +3129,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>0</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3157,15 +3157,19 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="40">
+        <v>45019</v>
+      </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.167</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.167</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -3173,15 +3177,19 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="40">
+        <v>45077</v>
+      </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
@@ -3189,15 +3197,19 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="40">
+        <v>45107</v>
+      </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3205,15 +3217,19 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="40">
+        <v>45138</v>
+      </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
@@ -3221,15 +3237,19 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="40">
+        <v>45169</v>
+      </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -3237,15 +3257,19 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="40">
+        <v>45199</v>
+      </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G16" s="42">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
@@ -3253,7 +3277,9 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="40">
+        <v>45230</v>
+      </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
@@ -3269,7 +3295,9 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="40">
+        <v>45260</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -3285,7 +3313,9 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="40">
+        <v>45291</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -3301,7 +3331,9 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="40">
+        <v>45322</v>
+      </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -3317,7 +3349,9 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="40">
+        <v>45351</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -3333,7 +3367,9 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="40">
+        <v>45382</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -3349,7 +3385,9 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
+      <c r="A23" s="40">
+        <v>45412</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3365,7 +3403,9 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="40">
+        <v>45443</v>
+      </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -3381,7 +3421,9 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="40">
+        <v>45473</v>
+      </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -3397,7 +3439,9 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="40">
+        <v>45504</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3413,7 +3457,9 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>45535</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3429,7 +3475,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45565</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -3445,7 +3493,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45596</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -3461,7 +3511,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>45626</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3477,7 +3529,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45657</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -3493,7 +3547,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>45688</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -3509,7 +3565,9 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
+      <c r="A33" s="40">
+        <v>45716</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3525,7 +3583,9 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40">
+        <v>45747</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3541,7 +3601,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45777</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3557,7 +3619,9 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
+      <c r="A36" s="40">
+        <v>45808</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3573,7 +3637,9 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="40">
+        <v>45838</v>
+      </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3589,7 +3655,9 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>45869</v>
+      </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -3605,7 +3673,9 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="40">
+        <v>45900</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -5142,17 +5212,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5186,7 +5256,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5255,21 +5325,23 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>2</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">

--- a/NEW HR/AGUILAR, WILLIAM C..xlsx
+++ b/NEW HR/AGUILAR, WILLIAM C..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>11/24,28/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>119/2024</t>
   </si>
 </sst>
 </file>
@@ -424,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,15 +578,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -590,17 +590,29 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,7 +1062,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1105,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,7 +1169,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1229,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1295,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1358,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1456,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1515,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1580,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1623,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1698,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1884,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1950,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +2008,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2074,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2130,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2205,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2248,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2314,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2370,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2468,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2531,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2597,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2963,12 +2975,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,14 +3010,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3018,16 +3030,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <v>45019</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3040,16 +3052,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3075,18 +3087,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3133,7 +3145,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>9.9169999999999998</v>
+        <v>10.167</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3143,7 +3155,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>7.9169999999999998</v>
+        <v>9.1669999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3345,13 +3357,15 @@
         <v>45291</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
@@ -3380,7 +3394,9 @@
       <c r="A21" s="40">
         <v>45322</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -3392,15 +3408,19 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="61">
+        <v>45303</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -3410,11 +3430,13 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="61" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -3432,7 +3454,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -3450,7 +3472,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3468,7 +3490,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3486,7 +3508,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3504,7 +3526,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3522,7 +3544,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3540,7 +3562,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3558,7 +3580,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3576,7 +3598,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3594,7 +3616,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3612,7 +3634,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3630,7 +3652,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3648,7 +3670,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3666,7 +3688,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3684,7 +3706,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3702,7 +3724,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3720,7 +3742,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3737,7 +3759,9 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45900</v>
+      </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -3881,7 +3905,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3897,7 +3921,7 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -4089,7 +4113,7 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4105,7 +4129,7 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -4297,7 +4321,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4313,7 +4337,7 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -5241,34 +5265,50 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/AGUILAR, WILLIAM C..xlsx
+++ b/NEW HR/AGUILAR, WILLIAM C..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>119/2024</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -575,8 +578,20 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -590,29 +605,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,7 +1065,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1108,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1172,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1232,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,7 +1298,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1361,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1459,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1518,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1583,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1626,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1701,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1887,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1953,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2011,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2077,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2133,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2208,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2251,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2317,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2373,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2471,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2534,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,9 +2981,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="4785" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,66 +3005,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="57">
         <v>45019</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3087,18 +3090,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3145,7 +3148,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>10.167</v>
+        <v>11.417</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3155,7 +3158,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>9.1669999999999998</v>
+        <v>9.4169999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3397,18 +3400,20 @@
       <c r="B21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="61">
+      <c r="K21" s="49">
         <v>45303</v>
       </c>
     </row>
@@ -3430,7 +3435,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="49" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3438,7 +3443,9 @@
       <c r="A23" s="40">
         <v>45351</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -3447,10 +3454,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="49">
+        <v>45319</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
@@ -5298,17 +5309,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5360,17 +5371,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5447,12 +5458,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
